--- a/各类文档/名片制作2017年10月(陈龙).xlsx
+++ b/各类文档/名片制作2017年10月(陈龙).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\中移物联网\各类文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cm-iot\各类文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,6 @@
     <t>China Mobile IOT Company Limited</t>
   </si>
   <si>
-    <t>广州市珠江新城珠江西路11号广东全球通大厦32楼</t>
-  </si>
-  <si>
     <t>名片信息</t>
   </si>
   <si>
@@ -246,12 +243,16 @@
     <t>13928491227@139.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>广州市珠江新城珠江西路11号广东全球通大厦33楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +323,13 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -469,10 +477,10 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -756,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,7 +787,7 @@
   <sheetData>
     <row r="1" spans="1:260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -795,51 +803,51 @@
     </row>
     <row r="2" spans="1:260" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:260" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:260" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>0</v>
@@ -848,279 +856,279 @@
         <v>1</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="14">
         <v>13928491227</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="17">
-        <v>2</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="18"/>
-      <c r="CE3" s="18"/>
-      <c r="CF3" s="18"/>
-      <c r="CG3" s="18"/>
-      <c r="CH3" s="18"/>
-      <c r="CI3" s="18"/>
-      <c r="CJ3" s="18"/>
-      <c r="CK3" s="18"/>
-      <c r="CL3" s="18"/>
-      <c r="CM3" s="18"/>
-      <c r="CN3" s="18"/>
-      <c r="CO3" s="18"/>
-      <c r="CP3" s="18"/>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18"/>
-      <c r="CV3" s="18"/>
-      <c r="CW3" s="18"/>
-      <c r="CX3" s="18"/>
-      <c r="CY3" s="18"/>
-      <c r="CZ3" s="18"/>
-      <c r="DA3" s="18"/>
-      <c r="DB3" s="18"/>
-      <c r="DC3" s="18"/>
-      <c r="DD3" s="18"/>
-      <c r="DE3" s="18"/>
-      <c r="DF3" s="18"/>
-      <c r="DG3" s="18"/>
-      <c r="DH3" s="18"/>
-      <c r="DI3" s="18"/>
-      <c r="DJ3" s="18"/>
-      <c r="DK3" s="18"/>
-      <c r="DL3" s="18"/>
-      <c r="DM3" s="18"/>
-      <c r="DN3" s="18"/>
-      <c r="DO3" s="18"/>
-      <c r="DP3" s="18"/>
-      <c r="DQ3" s="18"/>
-      <c r="DR3" s="18"/>
-      <c r="DS3" s="18"/>
-      <c r="DT3" s="18"/>
-      <c r="DU3" s="18"/>
-      <c r="DV3" s="18"/>
-      <c r="DW3" s="18"/>
-      <c r="DX3" s="18"/>
-      <c r="DY3" s="18"/>
-      <c r="DZ3" s="18"/>
-      <c r="EA3" s="18"/>
-      <c r="EB3" s="18"/>
-      <c r="EC3" s="18"/>
-      <c r="ED3" s="18"/>
-      <c r="EE3" s="18"/>
-      <c r="EF3" s="18"/>
-      <c r="EG3" s="18"/>
-      <c r="EH3" s="18"/>
-      <c r="EI3" s="18"/>
-      <c r="EJ3" s="18"/>
-      <c r="EK3" s="18"/>
-      <c r="EL3" s="18"/>
-      <c r="EM3" s="18"/>
-      <c r="EN3" s="18"/>
-      <c r="EO3" s="18"/>
-      <c r="EP3" s="18"/>
-      <c r="EQ3" s="18"/>
-      <c r="ER3" s="18"/>
-      <c r="ES3" s="18"/>
-      <c r="ET3" s="18"/>
-      <c r="EU3" s="18"/>
-      <c r="EV3" s="18"/>
-      <c r="EW3" s="18"/>
-      <c r="EX3" s="18"/>
-      <c r="EY3" s="18"/>
-      <c r="EZ3" s="18"/>
-      <c r="FA3" s="18"/>
-      <c r="FB3" s="18"/>
-      <c r="FC3" s="18"/>
-      <c r="FD3" s="18"/>
-      <c r="FE3" s="18"/>
-      <c r="FF3" s="18"/>
-      <c r="FG3" s="18"/>
-      <c r="FH3" s="18"/>
-      <c r="FI3" s="18"/>
-      <c r="FJ3" s="18"/>
-      <c r="FK3" s="18"/>
-      <c r="FL3" s="18"/>
-      <c r="FM3" s="18"/>
-      <c r="FN3" s="18"/>
-      <c r="FO3" s="18"/>
-      <c r="FP3" s="18"/>
-      <c r="FQ3" s="18"/>
-      <c r="FR3" s="18"/>
-      <c r="FS3" s="18"/>
-      <c r="FT3" s="18"/>
-      <c r="FU3" s="18"/>
-      <c r="FV3" s="18"/>
-      <c r="FW3" s="18"/>
-      <c r="FX3" s="18"/>
-      <c r="FY3" s="18"/>
-      <c r="FZ3" s="18"/>
-      <c r="GA3" s="18"/>
-      <c r="GB3" s="18"/>
-      <c r="GC3" s="18"/>
-      <c r="GD3" s="18"/>
-      <c r="GE3" s="18"/>
-      <c r="GF3" s="18"/>
-      <c r="GG3" s="18"/>
-      <c r="GH3" s="18"/>
-      <c r="GI3" s="18"/>
-      <c r="GJ3" s="18"/>
-      <c r="GK3" s="18"/>
-      <c r="GL3" s="18"/>
-      <c r="GM3" s="18"/>
-      <c r="GN3" s="18"/>
-      <c r="GO3" s="18"/>
-      <c r="GP3" s="18"/>
-      <c r="GQ3" s="18"/>
-      <c r="GR3" s="18"/>
-      <c r="GS3" s="18"/>
-      <c r="GT3" s="18"/>
-      <c r="GU3" s="18"/>
-      <c r="GV3" s="18"/>
-      <c r="GW3" s="18"/>
-      <c r="GX3" s="18"/>
-      <c r="GY3" s="18"/>
-      <c r="GZ3" s="18"/>
-      <c r="HA3" s="18"/>
-      <c r="HB3" s="18"/>
-      <c r="HC3" s="18"/>
-      <c r="HD3" s="18"/>
-      <c r="HE3" s="18"/>
-      <c r="HF3" s="18"/>
-      <c r="HG3" s="18"/>
-      <c r="HH3" s="18"/>
-      <c r="HI3" s="18"/>
-      <c r="HJ3" s="18"/>
-      <c r="HK3" s="18"/>
-      <c r="HL3" s="18"/>
-      <c r="HM3" s="18"/>
-      <c r="HN3" s="18"/>
-      <c r="HO3" s="18"/>
-      <c r="HP3" s="18"/>
-      <c r="HQ3" s="18"/>
-      <c r="HR3" s="18"/>
-      <c r="HS3" s="18"/>
-      <c r="HT3" s="18"/>
-      <c r="HU3" s="18"/>
-      <c r="HV3" s="18"/>
-      <c r="HW3" s="18"/>
-      <c r="HX3" s="18"/>
-      <c r="HY3" s="18"/>
-      <c r="HZ3" s="18"/>
-      <c r="IA3" s="18"/>
-      <c r="IB3" s="18"/>
-      <c r="IC3" s="18"/>
-      <c r="ID3" s="18"/>
-      <c r="IE3" s="18"/>
-      <c r="IF3" s="18"/>
-      <c r="IG3" s="18"/>
-      <c r="IH3" s="18"/>
-      <c r="II3" s="18"/>
-      <c r="IJ3" s="18"/>
-      <c r="IK3" s="18"/>
-      <c r="IL3" s="18"/>
-      <c r="IM3" s="18"/>
-      <c r="IN3" s="18"/>
-      <c r="IO3" s="18"/>
-      <c r="IP3" s="18"/>
-      <c r="IQ3" s="18"/>
-      <c r="IR3" s="18"/>
-      <c r="IS3" s="18"/>
-      <c r="IT3" s="18"/>
-      <c r="IU3" s="18"/>
-      <c r="IV3" s="18"/>
-      <c r="IW3" s="18"/>
-      <c r="IX3" s="18"/>
-      <c r="IY3" s="18"/>
-      <c r="IZ3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
+      <c r="CD3" s="19"/>
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="19"/>
+      <c r="CH3" s="19"/>
+      <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
+      <c r="CK3" s="19"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="19"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="19"/>
+      <c r="CP3" s="19"/>
+      <c r="CQ3" s="19"/>
+      <c r="CR3" s="19"/>
+      <c r="CS3" s="19"/>
+      <c r="CT3" s="19"/>
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="19"/>
+      <c r="CX3" s="19"/>
+      <c r="CY3" s="19"/>
+      <c r="CZ3" s="19"/>
+      <c r="DA3" s="19"/>
+      <c r="DB3" s="19"/>
+      <c r="DC3" s="19"/>
+      <c r="DD3" s="19"/>
+      <c r="DE3" s="19"/>
+      <c r="DF3" s="19"/>
+      <c r="DG3" s="19"/>
+      <c r="DH3" s="19"/>
+      <c r="DI3" s="19"/>
+      <c r="DJ3" s="19"/>
+      <c r="DK3" s="19"/>
+      <c r="DL3" s="19"/>
+      <c r="DM3" s="19"/>
+      <c r="DN3" s="19"/>
+      <c r="DO3" s="19"/>
+      <c r="DP3" s="19"/>
+      <c r="DQ3" s="19"/>
+      <c r="DR3" s="19"/>
+      <c r="DS3" s="19"/>
+      <c r="DT3" s="19"/>
+      <c r="DU3" s="19"/>
+      <c r="DV3" s="19"/>
+      <c r="DW3" s="19"/>
+      <c r="DX3" s="19"/>
+      <c r="DY3" s="19"/>
+      <c r="DZ3" s="19"/>
+      <c r="EA3" s="19"/>
+      <c r="EB3" s="19"/>
+      <c r="EC3" s="19"/>
+      <c r="ED3" s="19"/>
+      <c r="EE3" s="19"/>
+      <c r="EF3" s="19"/>
+      <c r="EG3" s="19"/>
+      <c r="EH3" s="19"/>
+      <c r="EI3" s="19"/>
+      <c r="EJ3" s="19"/>
+      <c r="EK3" s="19"/>
+      <c r="EL3" s="19"/>
+      <c r="EM3" s="19"/>
+      <c r="EN3" s="19"/>
+      <c r="EO3" s="19"/>
+      <c r="EP3" s="19"/>
+      <c r="EQ3" s="19"/>
+      <c r="ER3" s="19"/>
+      <c r="ES3" s="19"/>
+      <c r="ET3" s="19"/>
+      <c r="EU3" s="19"/>
+      <c r="EV3" s="19"/>
+      <c r="EW3" s="19"/>
+      <c r="EX3" s="19"/>
+      <c r="EY3" s="19"/>
+      <c r="EZ3" s="19"/>
+      <c r="FA3" s="19"/>
+      <c r="FB3" s="19"/>
+      <c r="FC3" s="19"/>
+      <c r="FD3" s="19"/>
+      <c r="FE3" s="19"/>
+      <c r="FF3" s="19"/>
+      <c r="FG3" s="19"/>
+      <c r="FH3" s="19"/>
+      <c r="FI3" s="19"/>
+      <c r="FJ3" s="19"/>
+      <c r="FK3" s="19"/>
+      <c r="FL3" s="19"/>
+      <c r="FM3" s="19"/>
+      <c r="FN3" s="19"/>
+      <c r="FO3" s="19"/>
+      <c r="FP3" s="19"/>
+      <c r="FQ3" s="19"/>
+      <c r="FR3" s="19"/>
+      <c r="FS3" s="19"/>
+      <c r="FT3" s="19"/>
+      <c r="FU3" s="19"/>
+      <c r="FV3" s="19"/>
+      <c r="FW3" s="19"/>
+      <c r="FX3" s="19"/>
+      <c r="FY3" s="19"/>
+      <c r="FZ3" s="19"/>
+      <c r="GA3" s="19"/>
+      <c r="GB3" s="19"/>
+      <c r="GC3" s="19"/>
+      <c r="GD3" s="19"/>
+      <c r="GE3" s="19"/>
+      <c r="GF3" s="19"/>
+      <c r="GG3" s="19"/>
+      <c r="GH3" s="19"/>
+      <c r="GI3" s="19"/>
+      <c r="GJ3" s="19"/>
+      <c r="GK3" s="19"/>
+      <c r="GL3" s="19"/>
+      <c r="GM3" s="19"/>
+      <c r="GN3" s="19"/>
+      <c r="GO3" s="19"/>
+      <c r="GP3" s="19"/>
+      <c r="GQ3" s="19"/>
+      <c r="GR3" s="19"/>
+      <c r="GS3" s="19"/>
+      <c r="GT3" s="19"/>
+      <c r="GU3" s="19"/>
+      <c r="GV3" s="19"/>
+      <c r="GW3" s="19"/>
+      <c r="GX3" s="19"/>
+      <c r="GY3" s="19"/>
+      <c r="GZ3" s="19"/>
+      <c r="HA3" s="19"/>
+      <c r="HB3" s="19"/>
+      <c r="HC3" s="19"/>
+      <c r="HD3" s="19"/>
+      <c r="HE3" s="19"/>
+      <c r="HF3" s="19"/>
+      <c r="HG3" s="19"/>
+      <c r="HH3" s="19"/>
+      <c r="HI3" s="19"/>
+      <c r="HJ3" s="19"/>
+      <c r="HK3" s="19"/>
+      <c r="HL3" s="19"/>
+      <c r="HM3" s="19"/>
+      <c r="HN3" s="19"/>
+      <c r="HO3" s="19"/>
+      <c r="HP3" s="19"/>
+      <c r="HQ3" s="19"/>
+      <c r="HR3" s="19"/>
+      <c r="HS3" s="19"/>
+      <c r="HT3" s="19"/>
+      <c r="HU3" s="19"/>
+      <c r="HV3" s="19"/>
+      <c r="HW3" s="19"/>
+      <c r="HX3" s="19"/>
+      <c r="HY3" s="19"/>
+      <c r="HZ3" s="19"/>
+      <c r="IA3" s="19"/>
+      <c r="IB3" s="19"/>
+      <c r="IC3" s="19"/>
+      <c r="ID3" s="19"/>
+      <c r="IE3" s="19"/>
+      <c r="IF3" s="19"/>
+      <c r="IG3" s="19"/>
+      <c r="IH3" s="19"/>
+      <c r="II3" s="19"/>
+      <c r="IJ3" s="19"/>
+      <c r="IK3" s="19"/>
+      <c r="IL3" s="19"/>
+      <c r="IM3" s="19"/>
+      <c r="IN3" s="19"/>
+      <c r="IO3" s="19"/>
+      <c r="IP3" s="19"/>
+      <c r="IQ3" s="19"/>
+      <c r="IR3" s="19"/>
+      <c r="IS3" s="19"/>
+      <c r="IT3" s="19"/>
+      <c r="IU3" s="19"/>
+      <c r="IV3" s="19"/>
+      <c r="IW3" s="19"/>
+      <c r="IX3" s="19"/>
+      <c r="IY3" s="19"/>
+      <c r="IZ3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1158,51 +1166,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="4">
         <v>13509666560</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
@@ -1210,25 +1218,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="4">
         <v>15816875679</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -1236,25 +1244,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="4">
         <v>13534133831</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
@@ -1262,25 +1270,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="4">
         <v>15986672653</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -1288,25 +1296,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="4">
         <v>15986672653</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
